--- a/natmiOut/OldD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H2">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I2">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J2">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.43162100804537</v>
+        <v>7.602732666666667</v>
       </c>
       <c r="N2">
-        <v>7.43162100804537</v>
+        <v>22.808198</v>
       </c>
       <c r="O2">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="P2">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="Q2">
-        <v>379.4231755669571</v>
+        <v>422.9169794324425</v>
       </c>
       <c r="R2">
-        <v>379.4231755669571</v>
+        <v>3806.252814891982</v>
       </c>
       <c r="S2">
-        <v>0.07273722401290422</v>
+        <v>0.07201884810635331</v>
       </c>
       <c r="T2">
-        <v>0.07273722401290422</v>
+        <v>0.07201884810635331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H3">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I3">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J3">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.58676388854474</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N3">
-        <v>7.58676388854474</v>
+        <v>22.865417</v>
       </c>
       <c r="O3">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696143</v>
       </c>
       <c r="P3">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696144</v>
       </c>
       <c r="Q3">
-        <v>387.3440321771031</v>
+        <v>423.9779526248948</v>
       </c>
       <c r="R3">
-        <v>387.3440321771031</v>
+        <v>3815.801573624053</v>
       </c>
       <c r="S3">
-        <v>0.07425568982819179</v>
+        <v>0.07219952202324044</v>
       </c>
       <c r="T3">
-        <v>0.07425568982819179</v>
+        <v>0.07219952202324047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H4">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I4">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J4">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.404361843733451</v>
+        <v>10.36505866666667</v>
       </c>
       <c r="N4">
-        <v>9.404361843733451</v>
+        <v>31.095176</v>
       </c>
       <c r="O4">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="P4">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="Q4">
-        <v>480.1419274566276</v>
+        <v>576.5768040438871</v>
       </c>
       <c r="R4">
-        <v>480.1419274566276</v>
+        <v>5189.191236394984</v>
       </c>
       <c r="S4">
-        <v>0.09204548689787988</v>
+        <v>0.09818569433605945</v>
       </c>
       <c r="T4">
-        <v>0.09204548689787988</v>
+        <v>0.09818569433605946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.0552374988174</v>
+        <v>55.62696966666667</v>
       </c>
       <c r="H5">
-        <v>51.0552374988174</v>
+        <v>166.880909</v>
       </c>
       <c r="I5">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="J5">
-        <v>0.2622005474929796</v>
+        <v>0.2670320042914472</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.36649526764928</v>
+        <v>2.59987</v>
       </c>
       <c r="N5">
-        <v>2.36649526764928</v>
+        <v>7.79961</v>
       </c>
       <c r="O5">
-        <v>0.08833752246312079</v>
+        <v>0.09222841992720189</v>
       </c>
       <c r="P5">
-        <v>0.08833752246312079</v>
+        <v>0.0922284199272019</v>
       </c>
       <c r="Q5">
-        <v>120.8219779296614</v>
+        <v>144.6228896272767</v>
       </c>
       <c r="R5">
-        <v>120.8219779296614</v>
+        <v>1301.60600664549</v>
       </c>
       <c r="S5">
-        <v>0.02316214675400365</v>
+        <v>0.02462793982579397</v>
       </c>
       <c r="T5">
-        <v>0.02316214675400365</v>
+        <v>0.02462793982579397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H6">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I6">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J6">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.43162100804537</v>
+        <v>7.602732666666667</v>
       </c>
       <c r="N6">
-        <v>7.43162100804537</v>
+        <v>22.808198</v>
       </c>
       <c r="O6">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="P6">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="Q6">
-        <v>467.9789473055138</v>
+        <v>481.6888044501167</v>
       </c>
       <c r="R6">
-        <v>467.9789473055138</v>
+        <v>4335.199240051051</v>
       </c>
       <c r="S6">
-        <v>0.08971378586092003</v>
+        <v>0.08202714605778894</v>
       </c>
       <c r="T6">
-        <v>0.08971378586092003</v>
+        <v>0.08202714605778894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H7">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I7">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J7">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.58676388854474</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N7">
-        <v>7.58676388854474</v>
+        <v>22.865417</v>
       </c>
       <c r="O7">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696143</v>
       </c>
       <c r="P7">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696144</v>
       </c>
       <c r="Q7">
-        <v>477.7484985002586</v>
+        <v>482.8972187098417</v>
       </c>
       <c r="R7">
-        <v>477.7484985002586</v>
+        <v>4346.074968388575</v>
       </c>
       <c r="S7">
-        <v>0.0915866552044857</v>
+        <v>0.08223292782407667</v>
       </c>
       <c r="T7">
-        <v>0.0915866552044857</v>
+        <v>0.08223292782407669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H8">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I8">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J8">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.404361843733451</v>
+        <v>10.36505866666667</v>
       </c>
       <c r="N8">
-        <v>9.404361843733451</v>
+        <v>31.095176</v>
       </c>
       <c r="O8">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="P8">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="Q8">
-        <v>592.205031842449</v>
+        <v>656.7023905880667</v>
       </c>
       <c r="R8">
-        <v>592.205031842449</v>
+        <v>5910.3215152926</v>
       </c>
       <c r="S8">
-        <v>0.1135285160120425</v>
+        <v>0.1118303402769764</v>
       </c>
       <c r="T8">
-        <v>0.1135285160120425</v>
+        <v>0.1118303402769764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.9713149794488</v>
+        <v>63.357325</v>
       </c>
       <c r="H9">
-        <v>62.9713149794488</v>
+        <v>190.071975</v>
       </c>
       <c r="I9">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="J9">
-        <v>0.3233970513670961</v>
+        <v>0.3041408435993349</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.36649526764928</v>
+        <v>2.59987</v>
       </c>
       <c r="N9">
-        <v>2.36649526764928</v>
+        <v>7.79961</v>
       </c>
       <c r="O9">
-        <v>0.08833752246312079</v>
+        <v>0.09222841992720189</v>
       </c>
       <c r="P9">
-        <v>0.08833752246312079</v>
+        <v>0.0922284199272019</v>
       </c>
       <c r="Q9">
-        <v>149.0213188965178</v>
+        <v>164.72080854775</v>
       </c>
       <c r="R9">
-        <v>149.0213188965178</v>
+        <v>1482.48727692975</v>
       </c>
       <c r="S9">
-        <v>0.02856809428964788</v>
+        <v>0.02805042944049289</v>
       </c>
       <c r="T9">
-        <v>0.02856809428964788</v>
+        <v>0.0280504294404929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H10">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I10">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J10">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.43162100804537</v>
+        <v>7.602732666666667</v>
       </c>
       <c r="N10">
-        <v>7.43162100804537</v>
+        <v>22.808198</v>
       </c>
       <c r="O10">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="P10">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="Q10">
-        <v>351.9698645944495</v>
+        <v>400.3535133969825</v>
       </c>
       <c r="R10">
-        <v>351.9698645944495</v>
+        <v>3603.181620572842</v>
       </c>
       <c r="S10">
-        <v>0.06747429396884629</v>
+        <v>0.06817649863307984</v>
       </c>
       <c r="T10">
-        <v>0.06747429396884629</v>
+        <v>0.06817649863307984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H11">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I11">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J11">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.58676388854474</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N11">
-        <v>7.58676388854474</v>
+        <v>22.865417</v>
       </c>
       <c r="O11">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696143</v>
       </c>
       <c r="P11">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696144</v>
       </c>
       <c r="Q11">
-        <v>359.3176045536106</v>
+        <v>401.3578815493049</v>
       </c>
       <c r="R11">
-        <v>359.3176045536106</v>
+        <v>3612.220933943744</v>
       </c>
       <c r="S11">
-        <v>0.06888289060135154</v>
+        <v>0.06834753323543143</v>
       </c>
       <c r="T11">
-        <v>0.06888289060135154</v>
+        <v>0.06834753323543144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H12">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I12">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J12">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.404361843733451</v>
+        <v>10.36505866666667</v>
       </c>
       <c r="N12">
-        <v>9.404361843733451</v>
+        <v>31.095176</v>
       </c>
       <c r="O12">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="P12">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="Q12">
-        <v>445.4010721419531</v>
+        <v>545.8152792823672</v>
       </c>
       <c r="R12">
-        <v>445.4010721419531</v>
+        <v>4912.337513541304</v>
       </c>
       <c r="S12">
-        <v>0.08538550000686447</v>
+        <v>0.09294729132303116</v>
       </c>
       <c r="T12">
-        <v>0.08538550000686447</v>
+        <v>0.09294729132303117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.3611159952064</v>
+        <v>52.65915966666667</v>
       </c>
       <c r="H13">
-        <v>47.3611159952064</v>
+        <v>157.977479</v>
       </c>
       <c r="I13">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="J13">
-        <v>0.2432289252225939</v>
+        <v>0.2527853132096735</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.36649526764928</v>
+        <v>2.59987</v>
       </c>
       <c r="N13">
-        <v>2.36649526764928</v>
+        <v>7.79961</v>
       </c>
       <c r="O13">
-        <v>0.08833752246312079</v>
+        <v>0.09222841992720189</v>
       </c>
       <c r="P13">
-        <v>0.08833752246312079</v>
+        <v>0.0922284199272019</v>
       </c>
       <c r="Q13">
-        <v>112.0798568732446</v>
+        <v>136.9069694425767</v>
       </c>
       <c r="R13">
-        <v>112.0798568732446</v>
+        <v>1232.16272498319</v>
       </c>
       <c r="S13">
-        <v>0.02148624064553162</v>
+        <v>0.02331399001813102</v>
       </c>
       <c r="T13">
-        <v>0.02148624064553162</v>
+        <v>0.02331399001813102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H14">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I14">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J14">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.43162100804537</v>
+        <v>7.602732666666667</v>
       </c>
       <c r="N14">
-        <v>7.43162100804537</v>
+        <v>22.808198</v>
       </c>
       <c r="O14">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="P14">
-        <v>0.277410648865452</v>
+        <v>0.2697011854344982</v>
       </c>
       <c r="Q14">
-        <v>247.7004126283396</v>
+        <v>278.8095867335427</v>
       </c>
       <c r="R14">
-        <v>247.7004126283396</v>
+        <v>2509.286280601884</v>
       </c>
       <c r="S14">
-        <v>0.04748534502278147</v>
+        <v>0.04747869263727609</v>
       </c>
       <c r="T14">
-        <v>0.04748534502278147</v>
+        <v>0.04747869263727609</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H15">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I15">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J15">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.58676388854474</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N15">
-        <v>7.58676388854474</v>
+        <v>22.865417</v>
       </c>
       <c r="O15">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696143</v>
       </c>
       <c r="P15">
-        <v>0.2832018870219178</v>
+        <v>0.2703777856696144</v>
       </c>
       <c r="Q15">
-        <v>252.8714184525656</v>
+        <v>279.5090372444207</v>
       </c>
       <c r="R15">
-        <v>252.8714184525656</v>
+        <v>2515.581335199786</v>
       </c>
       <c r="S15">
-        <v>0.04847665138788879</v>
+        <v>0.04759780258686581</v>
       </c>
       <c r="T15">
-        <v>0.04847665138788879</v>
+        <v>0.04759780258686581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H16">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I16">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J16">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.404361843733451</v>
+        <v>10.36505866666667</v>
       </c>
       <c r="N16">
-        <v>9.404361843733451</v>
+        <v>31.095176</v>
       </c>
       <c r="O16">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="P16">
-        <v>0.3510499416495094</v>
+        <v>0.3676926089686856</v>
       </c>
       <c r="Q16">
-        <v>313.4530550840984</v>
+        <v>380.1103958307787</v>
       </c>
       <c r="R16">
-        <v>313.4530550840984</v>
+        <v>3420.993562477008</v>
       </c>
       <c r="S16">
-        <v>0.06009043873272255</v>
+        <v>0.06472928303261853</v>
       </c>
       <c r="T16">
-        <v>0.06009043873272255</v>
+        <v>0.06472928303261855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.330603425576</v>
+        <v>36.672286</v>
       </c>
       <c r="H17">
-        <v>33.330603425576</v>
+        <v>110.016858</v>
       </c>
       <c r="I17">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="J17">
-        <v>0.1711734759173305</v>
+        <v>0.1760418388995444</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.36649526764928</v>
+        <v>2.59987</v>
       </c>
       <c r="N17">
-        <v>2.36649526764928</v>
+        <v>7.79961</v>
       </c>
       <c r="O17">
-        <v>0.08833752246312079</v>
+        <v>0.09222841992720189</v>
       </c>
       <c r="P17">
-        <v>0.08833752246312079</v>
+        <v>0.0922284199272019</v>
       </c>
       <c r="Q17">
-        <v>78.87671527452049</v>
+        <v>95.34317620282</v>
       </c>
       <c r="R17">
-        <v>78.87671527452049</v>
+        <v>858.0885858253801</v>
       </c>
       <c r="S17">
-        <v>0.01512104077393765</v>
+        <v>0.01623606064278401</v>
       </c>
       <c r="T17">
-        <v>0.01512104077393765</v>
+        <v>0.01623606064278401</v>
       </c>
     </row>
   </sheetData>
